--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="189">
   <si>
     <t>jam</t>
   </si>
@@ -313,9 +313,6 @@
     <t>pilihan</t>
   </si>
   <si>
-    <t>keterangan_id</t>
-  </si>
-  <si>
     <t>kode_ip</t>
   </si>
   <si>
@@ -382,9 +379,6 @@
     <t>Barapa rata-rata lama kunjungan pengawas ke sekolah ini</t>
   </si>
   <si>
-    <t>Jumlah siswa per kelas dan buku paket yang tersedia di sekolah ini</t>
-  </si>
-  <si>
     <t>Jumlah siswa kelas 1</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
     <t>Jumlah Buku Paket PKn kelas 6</t>
   </si>
   <si>
-    <t>Jumlah alat peraga IPA yang dimiliki oleh sekolah ini</t>
-  </si>
-  <si>
     <t>Model Kerangka Manusia</t>
   </si>
   <si>
@@ -514,9 +505,6 @@
     <t>Poster IPA/ Carta IPA</t>
   </si>
   <si>
-    <t>Berapakah Jumlah judul buku pengayaan di Perpustakaan sekolah</t>
-  </si>
-  <si>
     <t>Pengayaan (Buku Pengayaan adalah Buku yang digunakan siswa sebagai tambahan untuk menunjang buku paket. Buku pengayaan dibagi menjadi dua yaitu buku fiksi dan non-fiksi. Contoh: Buku cerita ilmu pengetahuan, novel, dan sebagainya.)</t>
   </si>
   <si>
@@ -554,6 +542,45 @@
   </si>
   <si>
     <t>keterangan</t>
+  </si>
+  <si>
+    <t>Apakah sekolah menerapkan kurikulum sesuai peraturan yang berlaku? (Kurikulum KTSP atau Kurikulum 2013)</t>
+  </si>
+  <si>
+    <t>ip21</t>
+  </si>
+  <si>
+    <t>ip22</t>
+  </si>
+  <si>
+    <t>ip21.1</t>
+  </si>
+  <si>
+    <t>Jumlah Guru</t>
+  </si>
+  <si>
+    <t>Jumlah Guru yang sudah menyusun Rencana Program Pembelajaran (RPP) sesuai silabus</t>
+  </si>
+  <si>
+    <t>ip22.1</t>
+  </si>
+  <si>
+    <t>ip22.2</t>
+  </si>
+  <si>
+    <t>ip22.3</t>
+  </si>
+  <si>
+    <t>Jumlah Guru yang sudah menyusun Rencana Program Pembelajaran (RPP) di sekolah ini :</t>
+  </si>
+  <si>
+    <t>Jumlah siswa per kelas dan buku paket yang tersedia di sekolah ini :</t>
+  </si>
+  <si>
+    <t>Jumlah alat peraga IPA yang dimiliki oleh sekolah ini :</t>
+  </si>
+  <si>
+    <t>Berapakah Jumlah judul buku pengayaan di Perpustakaan sekolah :</t>
   </si>
 </sst>
 </file>
@@ -922,7 +949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1037,21 +1064,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1098,7 +1110,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1114,12 +1126,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1463,2444 +1476,2320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>102</v>
+      <c r="H1" t="s">
+        <v>95</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
+      <c r="C2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
+      <c r="C3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+      <c r="C4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
+      <c r="C5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
+      <c r="C7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
+      <c r="C8" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
+      <c r="C9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D10" s="1">
-        <v>9</v>
+      <c r="C10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="1">
-        <v>10</v>
+      <c r="C11" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="1">
-        <v>11</v>
+      <c r="C12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="1">
-        <v>12</v>
+      <c r="C13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="1">
-        <v>13</v>
+      <c r="C14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14</v>
+      <c r="C15" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="1">
-        <v>15</v>
+      <c r="C16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1">
-        <v>16</v>
+      <c r="C17" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1">
-        <v>17</v>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18</v>
+      <c r="C19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>4</v>
       </c>
-      <c r="J19" t="s">
+      <c r="I19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" s="1">
-        <v>19</v>
+      <c r="C20" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="1">
-        <v>20</v>
+      <c r="C21" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>2</v>
-      </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="1">
-        <v>21</v>
+      <c r="C22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="2">
-        <v>2</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="1">
-        <v>22</v>
+      <c r="C23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="2">
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="1">
-        <v>23</v>
+      <c r="C24" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24</v>
+      <c r="C25" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D26" s="1">
-        <v>25</v>
+      <c r="C26" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="1">
-        <v>26</v>
+      <c r="C27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="1">
-        <v>27</v>
+      <c r="C28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2">
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="1">
-        <v>28</v>
+      <c r="C29" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="1">
-        <v>29</v>
+      <c r="C30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2">
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="1">
-        <v>30</v>
+      <c r="C31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" s="2">
-        <v>2</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" s="1">
-        <v>31</v>
+      <c r="C32" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2">
-        <v>2</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="1">
-        <v>32</v>
+      <c r="C33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>2</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="1">
-        <v>33</v>
+      <c r="C34" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>2</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" s="1">
-        <v>34</v>
+      <c r="C35" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
-        <v>2</v>
-      </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="1">
-        <v>35</v>
+      <c r="C36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="1">
-        <v>36</v>
+      <c r="C37" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>2</v>
-      </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="1">
-        <v>37</v>
+      <c r="C38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" s="2">
-        <v>2</v>
-      </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="1">
-        <v>38</v>
+      <c r="C39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" s="2">
-        <v>2</v>
-      </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D40" s="1">
-        <v>39</v>
+      <c r="C40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="1">
-        <v>40</v>
+      <c r="C41" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2</v>
-      </c>
-      <c r="H41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="1">
-        <v>41</v>
+      <c r="C42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>2</v>
-      </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="1">
-        <v>42</v>
+      <c r="C43" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2</v>
-      </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="1">
-        <v>43</v>
+      <c r="C44" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>2</v>
-      </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44</v>
+      <c r="C45" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>2</v>
-      </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D46" s="1">
-        <v>45</v>
+      <c r="C46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" s="2">
-        <v>2</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D47" s="1">
-        <v>46</v>
+      <c r="C47" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>2</v>
-      </c>
-      <c r="H47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D48" s="1">
-        <v>47</v>
+      <c r="C48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" s="2">
-        <v>2</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" s="1">
-        <v>48</v>
+      <c r="C49" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" s="2">
-        <v>2</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="1">
-        <v>49</v>
+      <c r="C50" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" s="2">
-        <v>2</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="1">
-        <v>50</v>
+      <c r="C51" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" s="2">
-        <v>2</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="1">
-        <v>51</v>
+      <c r="C52" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" s="2">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="1">
-        <v>52</v>
+      <c r="C53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" s="2">
-        <v>2</v>
-      </c>
-      <c r="H53" s="1">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D54" s="1">
-        <v>53</v>
+      <c r="C54" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2">
-        <v>2</v>
-      </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
-      <c r="J54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="1">
-        <v>54</v>
+      <c r="C55" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" s="2">
-        <v>2</v>
-      </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D56" s="1">
-        <v>55</v>
+      <c r="C56" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" s="2">
-        <v>2</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D57" s="1">
-        <v>56</v>
+      <c r="C57" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" s="2">
-        <v>2</v>
-      </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D58" s="1">
-        <v>57</v>
+      <c r="C58" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>2</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="F58" s="2">
+        <v>2</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="1">
-        <v>58</v>
+      <c r="C59" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" s="2">
-        <v>2</v>
-      </c>
-      <c r="H59" s="1">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="1">
-        <v>59</v>
+      <c r="C60" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2">
-        <v>2</v>
-      </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="D61" s="1">
-        <v>60</v>
+      <c r="C61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" s="2">
-        <v>2</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="2">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="1">
-        <v>61</v>
+      <c r="C62" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" s="2">
-        <v>2</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>2</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="1">
-        <v>62</v>
+      <c r="C63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" s="2">
-        <v>2</v>
-      </c>
-      <c r="H63" s="1">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="1">
-        <v>63</v>
+      <c r="C64" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" s="2">
-        <v>2</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>2</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="1">
-        <v>64</v>
+      <c r="C65" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65" s="2">
-        <v>2</v>
-      </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="2">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="1">
-        <v>65</v>
+      <c r="C66" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2">
-        <v>2</v>
-      </c>
-      <c r="H66" s="1">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>2</v>
+      </c>
+      <c r="G66" s="1">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="1">
-        <v>66</v>
+      <c r="C67" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67" s="2">
-        <v>2</v>
-      </c>
-      <c r="H67" s="1">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="2">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="1">
-        <v>67</v>
+      <c r="C68" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2</v>
-      </c>
-      <c r="H68" s="1">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>2</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="1">
-        <v>68</v>
+      <c r="C69" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" s="2">
-        <v>2</v>
-      </c>
-      <c r="H69" s="1">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>2</v>
-      </c>
-      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="1">
-        <v>69</v>
+      <c r="C70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" s="2">
-        <v>2</v>
-      </c>
-      <c r="H70" s="1">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>2</v>
-      </c>
-      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="1">
-        <v>70</v>
+      <c r="C71" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" s="2">
-        <v>2</v>
-      </c>
-      <c r="H71" s="1">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>2</v>
-      </c>
-      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="D72" s="1">
-        <v>71</v>
+      <c r="C72" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" s="2">
-        <v>2</v>
-      </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F72" s="2">
+        <v>2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D73" s="1">
-        <v>72</v>
+      <c r="C73" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="2">
-        <v>2</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>2</v>
-      </c>
-      <c r="J73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F73" s="2">
+        <v>2</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="1">
-        <v>73</v>
+      <c r="C74" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" s="2">
-        <v>2</v>
-      </c>
-      <c r="H74" s="1">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="1">
-        <v>74</v>
+      <c r="C75" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" s="2">
-        <v>2</v>
-      </c>
-      <c r="H75" s="1">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="1">
-        <v>75</v>
+      <c r="C76" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" s="2">
-        <v>2</v>
-      </c>
-      <c r="H76" s="1">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2">
+        <v>2</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2">
+        <v>2</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>2</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="1">
-        <v>76</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" s="2">
-        <v>2</v>
-      </c>
-      <c r="H77" s="1">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B79" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D79" s="9">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>2</v>
+      </c>
+      <c r="G79" s="1">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="1">
-        <v>77</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" s="2">
-        <v>2</v>
-      </c>
-      <c r="H78" s="1">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78" t="s">
-        <v>0</v>
+      <c r="B80" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0</v>
+      </c>
+      <c r="E80" s="9">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>2</v>
+      </c>
+      <c r="G80" s="1">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="9">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>2</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>3</v>
+      </c>
+      <c r="I82" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="227">
   <si>
     <t>jam</t>
   </si>
@@ -581,6 +581,129 @@
   </si>
   <si>
     <t>Berapakah Jumlah judul buku pengayaan di Perpustakaan sekolah :</t>
+  </si>
+  <si>
+    <t>ip23</t>
+  </si>
+  <si>
+    <t>ip23.1</t>
+  </si>
+  <si>
+    <t>Jumlah guru yang sudah mengembangkan program penilaian yang terstruktur terkait dengan materi dan jadwal penilaian terhadap siswa.</t>
+  </si>
+  <si>
+    <t>ip24</t>
+  </si>
+  <si>
+    <t>ip23.2</t>
+  </si>
+  <si>
+    <t>Jumlah Guru yang menyerahkan hasil evaluasi belajar pada akhir semester</t>
+  </si>
+  <si>
+    <t>ip23.3</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah ini sudah melakukan supervisi kelas?</t>
+  </si>
+  <si>
+    <t>Berapa kali supervisi kelas yang telah dilakukan dalam satu semester ini?</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah sudah memberikan umpan balik ke setiap guru yang disupervisi?</t>
+  </si>
+  <si>
+    <t>ip25</t>
+  </si>
+  <si>
+    <t>ip24.1</t>
+  </si>
+  <si>
+    <t>ip24.2</t>
+  </si>
+  <si>
+    <t>ip24.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jumlah guru yang sudah menyampaikan hasil evaluasi siswa dalam bentuk laporan hasil
+evaluasi belajar pada akhir semester kepada kepala sekolah.</t>
+    </r>
+  </si>
+  <si>
+    <t>ip25.1</t>
+  </si>
+  <si>
+    <t>ip25.2</t>
+  </si>
+  <si>
+    <t>ip25.3</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah ini sudah menyerahkan hasil UAS dan UKK kepada orang tua siswa?</t>
+  </si>
+  <si>
+    <t>ip26</t>
+  </si>
+  <si>
+    <t>ip26.1</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini memiliki dokumen Rencana Kerja Tahunan/Rencana Anggaran Sekolah?</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai Laporan Tahunan?</t>
+  </si>
+  <si>
+    <t>Apakah Rencana Kerja Tahunan termasuk RAKS dan Laporan Tahunan diumumkan melalui Papan Pengumuman Sekolah?</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai komite sekolah ?</t>
+  </si>
+  <si>
+    <t>ip27</t>
+  </si>
+  <si>
+    <t>ip27.1</t>
+  </si>
+  <si>
+    <t>ip27.2</t>
+  </si>
+  <si>
+    <t>ip27.3</t>
+  </si>
+  <si>
+    <t>ip27.4</t>
+  </si>
+  <si>
+    <t>ip27.5</t>
+  </si>
+  <si>
+    <t>ip27.6</t>
+  </si>
+  <si>
+    <t>ip27.7</t>
+  </si>
+  <si>
+    <t>ip27.8</t>
+  </si>
+  <si>
+    <t>Apakah Komite Sekolah berperan aktif dalam melakukan hal-hal berikut ini :</t>
+  </si>
+  <si>
+    <t>Ikut aktif membahas Kebijakan Sekolah</t>
+  </si>
+  <si>
+    <t>Ikut aktif membahas Program Kerja Tahunan Sekolah</t>
+  </si>
+  <si>
+    <t>Ikut aktif membahas Anggaran Sekolah</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1233,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1132,6 +1255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1476,17 +1605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -3788,6 +3917,483 @@
         <v>11</v>
       </c>
     </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1">
+        <v>2</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>2</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>2</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="11">
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <v>0</v>
+      </c>
+      <c r="F89" s="11">
+        <v>2</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>2</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>2</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>2</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2">
+        <v>2</v>
+      </c>
+      <c r="G94" s="1">
+        <v>1</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="2">
+        <v>2</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="1">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>2</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>2</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2</v>
+      </c>
+      <c r="G98" s="1">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" s="1">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>2</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" s="1">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>2</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="kategori" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="326">
   <si>
     <t>jam</t>
   </si>
@@ -682,35 +682,332 @@
     <t>ip27.4</t>
   </si>
   <si>
-    <t>ip27.5</t>
-  </si>
-  <si>
-    <t>ip27.6</t>
-  </si>
-  <si>
-    <t>ip27.7</t>
-  </si>
-  <si>
-    <t>ip27.8</t>
-  </si>
-  <si>
-    <t>Apakah Komite Sekolah berperan aktif dalam melakukan hal-hal berikut ini :</t>
-  </si>
-  <si>
-    <t>Ikut aktif membahas Kebijakan Sekolah</t>
-  </si>
-  <si>
-    <t>Ikut aktif membahas Program Kerja Tahunan Sekolah</t>
-  </si>
-  <si>
-    <t>Ikut aktif membahas Anggaran Sekolah</t>
+    <t>ip4.2</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai ruang guru, ruang kepala sekolah dan ruang staf kependidikan yang terpisah?</t>
+  </si>
+  <si>
+    <t>Apakah sekolah punya ruang laboratorium IPA</t>
+  </si>
+  <si>
+    <t>Apakah Lab IPA dilengkapi dengan meja dan kursi untuk 36 siswa</t>
+  </si>
+  <si>
+    <t>Ketersediaan Peralatan Praktek IPA yang dimiliki:</t>
+  </si>
+  <si>
+    <t>Mistar</t>
+  </si>
+  <si>
+    <t>Jangka sorong</t>
+  </si>
+  <si>
+    <t>Timbangan</t>
+  </si>
+  <si>
+    <t>Stopwatch</t>
+  </si>
+  <si>
+    <t>Rol meter</t>
+  </si>
+  <si>
+    <t>Termometer 100 C</t>
+  </si>
+  <si>
+    <t>Gelas Ukur</t>
+  </si>
+  <si>
+    <t>Massa logam</t>
+  </si>
+  <si>
+    <t>Multimeter AC/DC, 10 kilo ohm/volt</t>
+  </si>
+  <si>
+    <t>Batang magnet</t>
+  </si>
+  <si>
+    <t>Globe</t>
+  </si>
+  <si>
+    <t>Model tata surya</t>
+  </si>
+  <si>
+    <t>Garpu tala</t>
+  </si>
+  <si>
+    <t>Bidang miring</t>
+  </si>
+  <si>
+    <t>Dinamometer</t>
+  </si>
+  <si>
+    <t>Katrol tetap</t>
+  </si>
+  <si>
+    <t>Katrol bergerak</t>
+  </si>
+  <si>
+    <t>Balok kayu</t>
+  </si>
+  <si>
+    <t>Percobaan muai panjang</t>
+  </si>
+  <si>
+    <t>Percobaan optic</t>
+  </si>
+  <si>
+    <t>Percobaan rangkaian listrik</t>
+  </si>
+  <si>
+    <t>Gelas kimia</t>
+  </si>
+  <si>
+    <t>Model molekul sederhana</t>
+  </si>
+  <si>
+    <t>Pembakar spritus</t>
+  </si>
+  <si>
+    <t>Cawan penguapan</t>
+  </si>
+  <si>
+    <t>kaki tiga</t>
+  </si>
+  <si>
+    <t>Plat tetes</t>
+  </si>
+  <si>
+    <t>Pipet tetes + karet</t>
+  </si>
+  <si>
+    <t>Mikroskop monokuler</t>
+  </si>
+  <si>
+    <t>Kaca pembesar</t>
+  </si>
+  <si>
+    <t>Poster genetika</t>
+  </si>
+  <si>
+    <t>Model kerangka manusia</t>
+  </si>
+  <si>
+    <t>Model tubuh manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model pencernaan manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model sistem peredaran darah manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model sistem pernafasan manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model jantung manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model mata manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model telinga manusia</t>
+  </si>
+  <si>
+    <t>Gambar/model tenggorokan manusia</t>
+  </si>
+  <si>
+    <t>Petunjuk percobaan</t>
+  </si>
+  <si>
+    <t>ip3</t>
+  </si>
+  <si>
+    <t>ip3.1</t>
+  </si>
+  <si>
+    <t>ip3.2</t>
+  </si>
+  <si>
+    <t>ip3.3</t>
+  </si>
+  <si>
+    <t>ip3.4</t>
+  </si>
+  <si>
+    <t>ip3.5</t>
+  </si>
+  <si>
+    <t>ip3.6</t>
+  </si>
+  <si>
+    <t>ip3.7</t>
+  </si>
+  <si>
+    <t>ip3.8</t>
+  </si>
+  <si>
+    <t>ip3.9</t>
+  </si>
+  <si>
+    <t>ip3.10</t>
+  </si>
+  <si>
+    <t>ip3.11</t>
+  </si>
+  <si>
+    <t>ip3.12</t>
+  </si>
+  <si>
+    <t>ip3.13</t>
+  </si>
+  <si>
+    <t>ip3.14</t>
+  </si>
+  <si>
+    <t>ip3.15</t>
+  </si>
+  <si>
+    <t>ip3.16</t>
+  </si>
+  <si>
+    <t>ip3.17</t>
+  </si>
+  <si>
+    <t>ip3.18</t>
+  </si>
+  <si>
+    <t>ip3.19</t>
+  </si>
+  <si>
+    <t>ip3.20</t>
+  </si>
+  <si>
+    <t>ip3.21</t>
+  </si>
+  <si>
+    <t>ip3.22</t>
+  </si>
+  <si>
+    <t>ip3.23</t>
+  </si>
+  <si>
+    <t>ip3.24</t>
+  </si>
+  <si>
+    <t>ip3.25</t>
+  </si>
+  <si>
+    <t>ip3.26</t>
+  </si>
+  <si>
+    <t>ip3.27</t>
+  </si>
+  <si>
+    <t>ip3.28</t>
+  </si>
+  <si>
+    <t>ip3.29</t>
+  </si>
+  <si>
+    <t>ip3.30</t>
+  </si>
+  <si>
+    <t>ip3.31</t>
+  </si>
+  <si>
+    <t>ip3.32</t>
+  </si>
+  <si>
+    <t>ip3.33</t>
+  </si>
+  <si>
+    <t>ip3.34</t>
+  </si>
+  <si>
+    <t>ip3.35</t>
+  </si>
+  <si>
+    <t>ip3.36</t>
+  </si>
+  <si>
+    <t>ip3.37</t>
+  </si>
+  <si>
+    <t>ip3.38</t>
+  </si>
+  <si>
+    <t>ip3.39</t>
+  </si>
+  <si>
+    <t>ip3.40</t>
+  </si>
+  <si>
+    <t>ip3.41</t>
+  </si>
+  <si>
+    <t>ip3.42</t>
+  </si>
+  <si>
+    <t>ip3.43</t>
+  </si>
+  <si>
+    <t>ip3.44</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini mempunyai 1 orang guru untuk setiap mata pelajaran?</t>
+  </si>
+  <si>
+    <t>ip6</t>
+  </si>
+  <si>
+    <t>ip6.1</t>
+  </si>
+  <si>
+    <t>Berapa jumlah guru di sekolah ini?</t>
+  </si>
+  <si>
+    <t>Berapa jumlah Guru yang berkualifikasi S1/D4</t>
+  </si>
+  <si>
+    <t>Jumlah Guru yang bersertifikat pendidik</t>
+  </si>
+  <si>
+    <t>ip8</t>
+  </si>
+  <si>
+    <t>ip9</t>
+  </si>
+  <si>
+    <t>ip8.1</t>
+  </si>
+  <si>
+    <t>ip8.2</t>
+  </si>
+  <si>
+    <t>ip8.3</t>
+  </si>
+  <si>
+    <t>Apakah sekolah ini memiliki guru mapel Matematika, IPA, Bhs Indonesia, Bhs Inggris dan PPkn yang sudah bersertifikat pendidik?</t>
+  </si>
+  <si>
+    <t>ip9.1</t>
+  </si>
+  <si>
+    <t>Apakah kepala sekolah ini memiliki kualifikasi S1/D4 dan sudah bersertifikat pendidik</t>
+  </si>
+  <si>
+    <t>ip11</t>
+  </si>
+  <si>
+    <t>ip11.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,6 +1186,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1188,7 +1491,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1232,8 +1535,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1262,8 +1566,17 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1301,6 +1614,7 @@
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="Normal 3" xfId="42"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
@@ -1605,17 +1919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:XFD147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="104.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -1623,7 +1937,7 @@
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>100</v>
       </c>
@@ -1652,7 +1966,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>84</v>
       </c>
@@ -1672,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
@@ -1698,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>84</v>
       </c>
@@ -1724,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>84</v>
       </c>
@@ -1750,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
@@ -1776,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>84</v>
       </c>
@@ -1802,13 +2116,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
@@ -1828,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>84</v>
       </c>
@@ -1854,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>84</v>
       </c>
@@ -1880,13 +2194,13 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>84</v>
       </c>
@@ -1906,48 +2220,48 @@
         <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9 16384:16384" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -1963,43 +2277,47 @@
       <c r="H13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="XFD13">
+        <f>SUM(D13:XFC13)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -2016,41 +2334,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>116</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>117</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2073,36 +2391,36 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2128,39 +2446,39 @@
         <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2183,10 +2501,10 @@
         <v>31</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2209,10 +2527,10 @@
         <v>31</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2235,10 +2553,10 @@
         <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2261,10 +2579,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2287,10 +2605,10 @@
         <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2313,10 +2631,10 @@
         <v>31</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2342,10 +2660,10 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2371,10 +2689,10 @@
         <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2400,10 +2718,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2429,10 +2747,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2458,10 +2776,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2487,10 +2805,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -2516,10 +2834,10 @@
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -2545,10 +2863,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2574,10 +2892,10 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -2603,10 +2921,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -2632,10 +2950,10 @@
         <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -2661,10 +2979,10 @@
         <v>31</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2690,10 +3008,10 @@
         <v>31</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2719,10 +3037,10 @@
         <v>31</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2748,10 +3066,10 @@
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2777,10 +3095,10 @@
         <v>31</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2806,10 +3124,10 @@
         <v>31</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2835,10 +3153,10 @@
         <v>31</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2864,10 +3182,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -2893,10 +3211,10 @@
         <v>31</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2922,10 +3240,10 @@
         <v>31</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -2951,10 +3269,10 @@
         <v>31</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -2980,10 +3298,10 @@
         <v>31</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -3009,10 +3327,10 @@
         <v>31</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -3038,10 +3356,10 @@
         <v>31</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3067,10 +3385,10 @@
         <v>31</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3096,10 +3414,10 @@
         <v>31</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -3125,10 +3443,10 @@
         <v>31</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -3154,10 +3472,10 @@
         <v>31</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -3183,10 +3501,10 @@
         <v>31</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -3209,13 +3527,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -3241,10 +3559,10 @@
         <v>23</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -3270,10 +3588,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -3299,10 +3617,10 @@
         <v>23</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -3328,10 +3646,10 @@
         <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -3357,10 +3675,10 @@
         <v>23</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -3386,10 +3704,10 @@
         <v>23</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -3411,14 +3729,14 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>20</v>
+      <c r="A65" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -3441,10 +3759,10 @@
         <v>17</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -3470,10 +3788,10 @@
         <v>17</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -3496,10 +3814,10 @@
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -3522,13 +3840,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -3554,10 +3872,10 @@
         <v>13</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -3580,13 +3898,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -3612,10 +3930,10 @@
         <v>2</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -3638,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -3667,10 +3985,10 @@
         <v>2</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -3696,10 +4014,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -3725,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -3754,10 +4072,10 @@
         <v>2</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -3783,10 +4101,10 @@
         <v>2</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -3809,13 +4127,13 @@
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>176</v>
+        <v>1</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D79" s="9">
         <v>1</v>
@@ -3835,13 +4153,13 @@
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="D80" s="9">
         <v>0</v>
@@ -3864,10 +4182,10 @@
         <v>178</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -3893,10 +4211,10 @@
         <v>178</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -3919,13 +4237,13 @@
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>191</v>
+        <v>184</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="D83" s="1">
         <v>0</v>
@@ -3948,10 +4266,10 @@
         <v>189</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="D84" s="1">
         <v>0</v>
@@ -3974,10 +4292,10 @@
         <v>189</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D85" s="1">
         <v>0</v>
@@ -4000,13 +4318,13 @@
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -4029,10 +4347,10 @@
         <v>192</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -4058,10 +4376,10 @@
         <v>192</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -4081,13 +4399,13 @@
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D89" s="11">
         <v>0</v>
@@ -4110,10 +4428,10 @@
         <v>199</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>203</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -4136,10 +4454,10 @@
         <v>199</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -4162,13 +4480,13 @@
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -4188,13 +4506,13 @@
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -4217,10 +4535,10 @@
         <v>214</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -4243,10 +4561,10 @@
         <v>214</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -4269,10 +4587,10 @@
         <v>214</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -4295,16 +4613,16 @@
         <v>214</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="2">
         <v>2</v>
@@ -4318,25 +4636,25 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1</v>
-      </c>
-      <c r="E98" s="1">
-        <v>1</v>
-      </c>
-      <c r="F98" s="2">
-        <v>2</v>
+        <v>266</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D98" s="13">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
+      <c r="F98" s="14">
+        <v>1</v>
       </c>
       <c r="G98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4344,25 +4662,25 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1">
-        <v>1</v>
-      </c>
-      <c r="F99" s="2">
-        <v>2</v>
+        <v>267</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D99" s="13">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13">
+        <v>1</v>
+      </c>
+      <c r="F99" s="14">
+        <v>1</v>
       </c>
       <c r="G99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4370,27 +4688,1249 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="14">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <v>1</v>
+      </c>
+      <c r="F101" s="14">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
-      </c>
-      <c r="E100" s="1">
-        <v>1</v>
-      </c>
-      <c r="F100" s="2">
-        <v>2</v>
-      </c>
-      <c r="G100" s="1">
-        <v>1</v>
-      </c>
-      <c r="H100" s="1">
+      <c r="D103" s="12">
+        <v>0</v>
+      </c>
+      <c r="E103" s="12">
+        <v>1</v>
+      </c>
+      <c r="F103" s="14">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0</v>
+      </c>
+      <c r="E104" s="12">
+        <v>1</v>
+      </c>
+      <c r="F104" s="14">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>2</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0</v>
+      </c>
+      <c r="E105" s="12">
+        <v>1</v>
+      </c>
+      <c r="F105" s="14">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0</v>
+      </c>
+      <c r="E106" s="12">
+        <v>1</v>
+      </c>
+      <c r="F106" s="14">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1</v>
+      </c>
+      <c r="F107" s="14">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0</v>
+      </c>
+      <c r="E108" s="12">
+        <v>1</v>
+      </c>
+      <c r="F108" s="14">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0</v>
+      </c>
+      <c r="E109" s="12">
+        <v>1</v>
+      </c>
+      <c r="F109" s="14">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
+        <v>1</v>
+      </c>
+      <c r="F110" s="14">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0</v>
+      </c>
+      <c r="E111" s="12">
+        <v>1</v>
+      </c>
+      <c r="F111" s="14">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
+      </c>
+      <c r="E112" s="12">
+        <v>1</v>
+      </c>
+      <c r="F112" s="14">
+        <v>1</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0</v>
+      </c>
+      <c r="E113" s="12">
+        <v>1</v>
+      </c>
+      <c r="F113" s="14">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0</v>
+      </c>
+      <c r="E114" s="12">
+        <v>1</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0</v>
+      </c>
+      <c r="E115" s="12">
+        <v>1</v>
+      </c>
+      <c r="F115" s="14">
+        <v>1</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0</v>
+      </c>
+      <c r="E116" s="12">
+        <v>1</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0</v>
+      </c>
+      <c r="E117" s="12">
+        <v>1</v>
+      </c>
+      <c r="F117" s="14">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1</v>
+      </c>
+      <c r="F118" s="14">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0</v>
+      </c>
+      <c r="E119" s="12">
+        <v>1</v>
+      </c>
+      <c r="F119" s="14">
+        <v>1</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0</v>
+      </c>
+      <c r="E120" s="12">
+        <v>1</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0</v>
+      </c>
+      <c r="E121" s="12">
+        <v>1</v>
+      </c>
+      <c r="F121" s="14">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0</v>
+      </c>
+      <c r="E122" s="12">
+        <v>1</v>
+      </c>
+      <c r="F122" s="14">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>2</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0</v>
+      </c>
+      <c r="E123" s="12">
+        <v>1</v>
+      </c>
+      <c r="F123" s="14">
+        <v>1</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0</v>
+      </c>
+      <c r="E124" s="12">
+        <v>1</v>
+      </c>
+      <c r="F124" s="14">
+        <v>1</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0</v>
+      </c>
+      <c r="E125" s="12">
+        <v>1</v>
+      </c>
+      <c r="F125" s="14">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0</v>
+      </c>
+      <c r="E126" s="12">
+        <v>1</v>
+      </c>
+      <c r="F126" s="14">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0</v>
+      </c>
+      <c r="E127" s="12">
+        <v>1</v>
+      </c>
+      <c r="F127" s="14">
+        <v>1</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0</v>
+      </c>
+      <c r="E128" s="12">
+        <v>1</v>
+      </c>
+      <c r="F128" s="14">
+        <v>1</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0</v>
+      </c>
+      <c r="E129" s="12">
+        <v>1</v>
+      </c>
+      <c r="F129" s="14">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0</v>
+      </c>
+      <c r="E130" s="12">
+        <v>1</v>
+      </c>
+      <c r="F130" s="14">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1">
+        <v>2</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0</v>
+      </c>
+      <c r="E131" s="12">
+        <v>1</v>
+      </c>
+      <c r="F131" s="14">
+        <v>1</v>
+      </c>
+      <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0</v>
+      </c>
+      <c r="E132" s="12">
+        <v>1</v>
+      </c>
+      <c r="F132" s="14">
+        <v>1</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0</v>
+      </c>
+      <c r="E133" s="12">
+        <v>1</v>
+      </c>
+      <c r="F133" s="14">
+        <v>1</v>
+      </c>
+      <c r="G133" s="1">
+        <v>2</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0</v>
+      </c>
+      <c r="E134" s="12">
+        <v>1</v>
+      </c>
+      <c r="F134" s="14">
+        <v>1</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0</v>
+      </c>
+      <c r="E135" s="12">
+        <v>1</v>
+      </c>
+      <c r="F135" s="14">
+        <v>1</v>
+      </c>
+      <c r="G135" s="1">
+        <v>2</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1</v>
+      </c>
+      <c r="F136" s="14">
+        <v>1</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1</v>
+      </c>
+      <c r="F137" s="14">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0</v>
+      </c>
+      <c r="E138" s="12">
+        <v>1</v>
+      </c>
+      <c r="F138" s="14">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1">
+        <v>2</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" s="12">
+        <v>0</v>
+      </c>
+      <c r="E139" s="12">
+        <v>1</v>
+      </c>
+      <c r="F139" s="14">
+        <v>1</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0</v>
+      </c>
+      <c r="E140" s="12">
+        <v>1</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0</v>
+      </c>
+      <c r="E141" s="12">
+        <v>1</v>
+      </c>
+      <c r="F141" s="14">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D142" s="1">
+        <v>1</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+      <c r="F142" s="14">
+        <v>1</v>
+      </c>
+      <c r="G142" s="1">
+        <v>2</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0</v>
+      </c>
+      <c r="E143" s="12">
+        <v>1</v>
+      </c>
+      <c r="F143" s="14">
+        <v>1</v>
+      </c>
+      <c r="G143" s="1">
+        <v>2</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0</v>
+      </c>
+      <c r="E144" s="12">
+        <v>1</v>
+      </c>
+      <c r="F144" s="14">
+        <v>1</v>
+      </c>
+      <c r="G144" s="1">
+        <v>2</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0</v>
+      </c>
+      <c r="E145" s="12">
+        <v>1</v>
+      </c>
+      <c r="F145" s="14">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1">
+        <v>2</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D146" s="12">
+        <v>1</v>
+      </c>
+      <c r="E146" s="12">
+        <v>1</v>
+      </c>
+      <c r="F146" s="14">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1">
+        <v>2</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D147" s="12">
+        <v>1</v>
+      </c>
+      <c r="E147" s="12">
+        <v>1</v>
+      </c>
+      <c r="F147" s="14">
+        <v>1</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="H147" s="1">
         <v>0</v>
       </c>
     </row>

--- a/storage/file/pertanyaan.xlsx
+++ b/storage/file/pertanyaan.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="kategori" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1921,8 +1922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G154" sqref="G154"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5938,4 +5939,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>